--- a/Offline/BusinessManagement/Marketing/AI marketing/ToBeDeleted/Old-AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/ToBeDeleted/Old-AI Workshop Schools-Colleges.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\ToBeDeleted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E5400-E041-433C-82D7-5CC0C7FAA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$V$196</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +41,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="M28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2566,7 +2565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="56">
     <font>
       <sz val="11"/>
@@ -3440,27 +3439,6 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3490,6 +3468,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3771,10 +3770,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3799,23 +3798,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
       <c r="I2" s="26"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="123" t="s">
         <v>370</v>
       </c>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="26"/>
     </row>
     <row r="3" spans="2:18">
@@ -3930,7 +3929,7 @@
       </c>
       <c r="D7" s="43">
         <f ca="1">TODAY()</f>
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>264</v>
@@ -3964,7 +3963,7 @@
       </c>
       <c r="D8" s="44">
         <f ca="1">ROUND(D12/(D7-D6+1),0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>279</v>
@@ -4006,7 +4005,7 @@
       </c>
       <c r="M9" s="43">
         <f ca="1">TODAY()</f>
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>240</v>
@@ -4032,7 +4031,7 @@
       </c>
       <c r="M10" s="44">
         <f ca="1">ROUND(M14/(M9-M8+1),0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R10" s="28"/>
     </row>
@@ -4046,17 +4045,17 @@
         <v>83</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="H11" s="109"/>
+      <c r="H11" s="119"/>
       <c r="I11" s="28"/>
       <c r="K11" s="27"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="109" t="s">
+      <c r="P11" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="Q11" s="109"/>
+      <c r="Q11" s="119"/>
       <c r="R11" s="28"/>
     </row>
     <row r="12" spans="2:18">
@@ -4727,14 +4726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K182" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V183" sqref="V183"/>
+      <selection pane="bottomRight" activeCell="W183" sqref="W183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -13409,157 +13408,157 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V196" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V196"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"Todo,Initial,Mailed,Workshop-Fixed,Customer,Reject,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E2" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D3" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D4" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E4" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D5" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="D7" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D6" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E6" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D8" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E8" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="D12" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D13" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="E13" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D14" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="E14" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D15" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D17" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D18" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="E18" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D19" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="D38" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="D40" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D44" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="D45" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="D83" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="D84" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="D86" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="D87" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="D90" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="D127" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="D128" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="D129" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="D130" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="D131" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="D132" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="D133" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="D134" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="D135" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="D136" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="D137" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="D138" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="D139" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="D140" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="D141" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="D142" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="D143" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="D144" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="D145" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="D146" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="D147" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="D149" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="D150" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="D152" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="D153" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="D154" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="E151" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="D156" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="D157" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="D159" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="D160" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="D163" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="D166" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="D167" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="D168" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="D169" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="D170" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="D171" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="D175" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="D176" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="D177" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="F177" r:id="rId126" display="tel:9038724147" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="D178" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="D179" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="D181" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="D182" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="D184" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="D185" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="D186" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="D187" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="D188" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="D189" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="D192" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="D193" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="D195" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="D196" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="D101" r:id="rId141" xr:uid="{5221735D-22B5-4D61-853A-73B3313572F8}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D37" r:id="rId12"/>
+    <hyperlink ref="D41" r:id="rId13"/>
+    <hyperlink ref="D42" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D48" r:id="rId17"/>
+    <hyperlink ref="D49" r:id="rId18"/>
+    <hyperlink ref="D51" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="D53" r:id="rId21"/>
+    <hyperlink ref="D54" r:id="rId22"/>
+    <hyperlink ref="D55" r:id="rId23"/>
+    <hyperlink ref="D56" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D58" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D63" r:id="rId31"/>
+    <hyperlink ref="D64" r:id="rId32"/>
+    <hyperlink ref="D65" r:id="rId33"/>
+    <hyperlink ref="D66" r:id="rId34"/>
+    <hyperlink ref="D67" r:id="rId35"/>
+    <hyperlink ref="D68" r:id="rId36"/>
+    <hyperlink ref="D69" r:id="rId37"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D73" r:id="rId41"/>
+    <hyperlink ref="D75" r:id="rId42"/>
+    <hyperlink ref="D78" r:id="rId43"/>
+    <hyperlink ref="D79" r:id="rId44"/>
+    <hyperlink ref="D80" r:id="rId45"/>
+    <hyperlink ref="D81" r:id="rId46"/>
+    <hyperlink ref="D85" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D89" r:id="rId49"/>
+    <hyperlink ref="D91" r:id="rId50"/>
+    <hyperlink ref="D2" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="E2" r:id="rId53"/>
+    <hyperlink ref="D3" r:id="rId54"/>
+    <hyperlink ref="D4" r:id="rId55"/>
+    <hyperlink ref="E4" r:id="rId56"/>
+    <hyperlink ref="D5" r:id="rId57"/>
+    <hyperlink ref="D7" r:id="rId58"/>
+    <hyperlink ref="D6" r:id="rId59"/>
+    <hyperlink ref="E6" r:id="rId60"/>
+    <hyperlink ref="D8" r:id="rId61"/>
+    <hyperlink ref="E8" r:id="rId62"/>
+    <hyperlink ref="D9" r:id="rId63"/>
+    <hyperlink ref="D10" r:id="rId64"/>
+    <hyperlink ref="D12" r:id="rId65"/>
+    <hyperlink ref="D13" r:id="rId66"/>
+    <hyperlink ref="E13" r:id="rId67"/>
+    <hyperlink ref="D14" r:id="rId68"/>
+    <hyperlink ref="E14" r:id="rId69"/>
+    <hyperlink ref="D15" r:id="rId70"/>
+    <hyperlink ref="D17" r:id="rId71"/>
+    <hyperlink ref="D18" r:id="rId72"/>
+    <hyperlink ref="E18" r:id="rId73"/>
+    <hyperlink ref="D19" r:id="rId74"/>
+    <hyperlink ref="D38" r:id="rId75"/>
+    <hyperlink ref="D40" r:id="rId76"/>
+    <hyperlink ref="D44" r:id="rId77"/>
+    <hyperlink ref="D45" r:id="rId78"/>
+    <hyperlink ref="D82" r:id="rId79"/>
+    <hyperlink ref="D83" r:id="rId80"/>
+    <hyperlink ref="D84" r:id="rId81"/>
+    <hyperlink ref="D86" r:id="rId82"/>
+    <hyperlink ref="D87" r:id="rId83"/>
+    <hyperlink ref="D90" r:id="rId84"/>
+    <hyperlink ref="D127" r:id="rId85"/>
+    <hyperlink ref="D128" r:id="rId86"/>
+    <hyperlink ref="D129" r:id="rId87"/>
+    <hyperlink ref="D130" r:id="rId88"/>
+    <hyperlink ref="D131" r:id="rId89"/>
+    <hyperlink ref="D132" r:id="rId90"/>
+    <hyperlink ref="D133" r:id="rId91"/>
+    <hyperlink ref="D134" r:id="rId92"/>
+    <hyperlink ref="D135" r:id="rId93"/>
+    <hyperlink ref="D136" r:id="rId94"/>
+    <hyperlink ref="D137" r:id="rId95"/>
+    <hyperlink ref="D138" r:id="rId96"/>
+    <hyperlink ref="D139" r:id="rId97"/>
+    <hyperlink ref="D140" r:id="rId98"/>
+    <hyperlink ref="D141" r:id="rId99"/>
+    <hyperlink ref="D142" r:id="rId100"/>
+    <hyperlink ref="D143" r:id="rId101"/>
+    <hyperlink ref="D144" r:id="rId102"/>
+    <hyperlink ref="D145" r:id="rId103"/>
+    <hyperlink ref="D146" r:id="rId104"/>
+    <hyperlink ref="D147" r:id="rId105"/>
+    <hyperlink ref="D149" r:id="rId106"/>
+    <hyperlink ref="D150" r:id="rId107"/>
+    <hyperlink ref="D152" r:id="rId108"/>
+    <hyperlink ref="D153" r:id="rId109"/>
+    <hyperlink ref="D154" r:id="rId110"/>
+    <hyperlink ref="E151" r:id="rId111"/>
+    <hyperlink ref="D156" r:id="rId112"/>
+    <hyperlink ref="D157" r:id="rId113"/>
+    <hyperlink ref="D159" r:id="rId114"/>
+    <hyperlink ref="D160" r:id="rId115"/>
+    <hyperlink ref="D163" r:id="rId116"/>
+    <hyperlink ref="D166" r:id="rId117"/>
+    <hyperlink ref="D167" r:id="rId118"/>
+    <hyperlink ref="D168" r:id="rId119"/>
+    <hyperlink ref="D169" r:id="rId120"/>
+    <hyperlink ref="D170" r:id="rId121"/>
+    <hyperlink ref="D171" r:id="rId122"/>
+    <hyperlink ref="D175" r:id="rId123"/>
+    <hyperlink ref="D176" r:id="rId124"/>
+    <hyperlink ref="D177" r:id="rId125"/>
+    <hyperlink ref="F177" r:id="rId126" display="tel:9038724147"/>
+    <hyperlink ref="D178" r:id="rId127"/>
+    <hyperlink ref="D179" r:id="rId128"/>
+    <hyperlink ref="D181" r:id="rId129"/>
+    <hyperlink ref="D182" r:id="rId130"/>
+    <hyperlink ref="D184" r:id="rId131"/>
+    <hyperlink ref="D185" r:id="rId132"/>
+    <hyperlink ref="D186" r:id="rId133"/>
+    <hyperlink ref="D187" r:id="rId134"/>
+    <hyperlink ref="D188" r:id="rId135"/>
+    <hyperlink ref="D189" r:id="rId136"/>
+    <hyperlink ref="D192" r:id="rId137"/>
+    <hyperlink ref="D193" r:id="rId138"/>
+    <hyperlink ref="D195" r:id="rId139"/>
+    <hyperlink ref="D196" r:id="rId140"/>
+    <hyperlink ref="D101" r:id="rId141"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId142"/>
@@ -13568,7 +13567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -13583,7 +13582,7 @@
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.21875" style="14" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="109" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16" style="36" customWidth="1"/>
     <col min="9" max="10" width="11" style="1" customWidth="1"/>
@@ -13676,7 +13675,7 @@
       <c r="C2" s="37" t="s">
         <v>733</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="109" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="36" t="s">
@@ -13723,7 +13722,7 @@
       <c r="B3" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="109" t="s">
         <v>297</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -13767,7 +13766,7 @@
       <c r="B4" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="109" t="s">
         <v>300</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -13811,7 +13810,7 @@
       <c r="B5" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="109" t="s">
         <v>303</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -13858,7 +13857,7 @@
       <c r="B6" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="110" t="s">
         <v>305</v>
       </c>
       <c r="E6" s="36" t="s">
@@ -13908,7 +13907,7 @@
       <c r="C7" s="37" t="s">
         <v>736</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="111" t="s">
         <v>308</v>
       </c>
       <c r="E7" s="36" t="s">
@@ -13958,7 +13957,7 @@
       <c r="B8" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="111" t="s">
         <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -14002,7 +14001,7 @@
       <c r="B9" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="109">
         <v>9903250730</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -14043,7 +14042,7 @@
       <c r="B10" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="109" t="s">
         <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -14085,7 +14084,7 @@
         <v>316</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="109" t="s">
         <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -14126,7 +14125,7 @@
       <c r="B12" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="109">
         <v>9635253261</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -14167,7 +14166,7 @@
       <c r="B13" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="109">
         <v>8017700500</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -14208,7 +14207,7 @@
       <c r="B14" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="109">
         <v>8420123333</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -14249,7 +14248,7 @@
       <c r="B15" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="109" t="s">
         <v>322</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -14290,7 +14289,7 @@
       <c r="B16" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="109" t="s">
         <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -14331,7 +14330,7 @@
       <c r="B17" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="109" t="s">
         <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -14372,7 +14371,7 @@
       <c r="B18" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="109" t="s">
         <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -14413,7 +14412,7 @@
       <c r="B19" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="109" t="s">
         <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -14455,7 +14454,7 @@
         <v>331</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="112" t="s">
         <v>332</v>
       </c>
       <c r="K20" s="78" t="s">
@@ -14497,7 +14496,7 @@
         <v>333</v>
       </c>
       <c r="C21" s="37"/>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="109" t="s">
         <v>334</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -14538,7 +14537,7 @@
       <c r="B22" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="109" t="s">
         <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -14580,7 +14579,7 @@
         <v>337</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="109" t="s">
         <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -14622,7 +14621,7 @@
         <v>339</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="109" t="s">
         <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -14664,7 +14663,7 @@
         <v>341</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="109" t="s">
         <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -14706,7 +14705,7 @@
         <v>343</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="109" t="s">
         <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -14747,7 +14746,7 @@
       <c r="B27" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="109" t="s">
         <v>346</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -14788,7 +14787,7 @@
       <c r="B28" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="109" t="s">
         <v>348</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -14830,7 +14829,7 @@
         <v>349</v>
       </c>
       <c r="C29" s="37"/>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="109" t="s">
         <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -14872,7 +14871,7 @@
         <v>351</v>
       </c>
       <c r="C30" s="37"/>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="109" t="s">
         <v>352</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -14914,7 +14913,7 @@
         <v>353</v>
       </c>
       <c r="C31" s="37"/>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="109" t="s">
         <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -14955,7 +14954,7 @@
       <c r="B32" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="109" t="s">
         <v>356</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -14996,7 +14995,7 @@
       <c r="B33" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="109" t="s">
         <v>358</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -15037,7 +15036,7 @@
       <c r="B34" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="109" t="s">
         <v>360</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -15078,7 +15077,7 @@
       <c r="B35" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="112" t="s">
         <v>361</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -15122,7 +15121,7 @@
       <c r="C36" s="37" t="s">
         <v>780</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="109" t="s">
         <v>373</v>
       </c>
       <c r="E36" s="36" t="s">
@@ -15169,7 +15168,7 @@
       <c r="C37" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="109" t="s">
         <v>375</v>
       </c>
       <c r="E37" s="36" t="s">
@@ -15216,7 +15215,7 @@
       <c r="C38" s="37" t="s">
         <v>783</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="109" t="s">
         <v>379</v>
       </c>
       <c r="E38" s="36" t="s">
@@ -15266,7 +15265,7 @@
       <c r="B39" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="109" t="s">
         <v>383</v>
       </c>
       <c r="E39" s="36" t="s">
@@ -15310,7 +15309,7 @@
       <c r="B40" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="109" t="s">
         <v>387</v>
       </c>
       <c r="E40" s="36" t="s">
@@ -15354,7 +15353,7 @@
       <c r="B41" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="113" t="s">
         <v>389</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -15398,7 +15397,7 @@
       <c r="B42" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D42" s="116" t="s">
+      <c r="D42" s="109" t="s">
         <v>392</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -15445,7 +15444,7 @@
       <c r="C43" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="109" t="s">
         <v>396</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -15489,7 +15488,7 @@
       <c r="B44" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D44" s="116" t="s">
+      <c r="D44" s="109" t="s">
         <v>768</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -15533,7 +15532,7 @@
       <c r="B45" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D45" s="116" t="s">
+      <c r="D45" s="109" t="s">
         <v>402</v>
       </c>
       <c r="E45" s="36" t="s">
@@ -15577,7 +15576,7 @@
       <c r="B46" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="116" t="s">
+      <c r="D46" s="109" t="s">
         <v>404</v>
       </c>
       <c r="E46" s="36" t="s">
@@ -15621,7 +15620,7 @@
       <c r="B47" s="79" t="s">
         <v>725</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="113" t="s">
         <v>406</v>
       </c>
       <c r="E47" s="36" t="s">
@@ -15665,7 +15664,7 @@
       <c r="B48" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="109" t="s">
         <v>409</v>
       </c>
       <c r="E48" s="36" t="s">
@@ -15712,7 +15711,7 @@
       <c r="C49" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="D49" s="116" t="s">
+      <c r="D49" s="109" t="s">
         <v>411</v>
       </c>
       <c r="E49" s="36" t="s">
@@ -15756,7 +15755,7 @@
       <c r="B50" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="109" t="s">
         <v>414</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -15800,7 +15799,7 @@
       <c r="B51" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="109" t="s">
         <v>418</v>
       </c>
       <c r="E51" s="36" t="s">
@@ -15844,7 +15843,7 @@
       <c r="B52" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="D52" s="116" t="s">
+      <c r="D52" s="109" t="s">
         <v>422</v>
       </c>
       <c r="E52" s="36" t="s">
@@ -15888,7 +15887,7 @@
       <c r="B53" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="116" t="s">
+      <c r="D53" s="109" t="s">
         <v>425</v>
       </c>
       <c r="E53" s="36" t="s">
@@ -15932,7 +15931,7 @@
       <c r="B54" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="D54" s="116" t="s">
+      <c r="D54" s="109" t="s">
         <v>427</v>
       </c>
       <c r="E54" s="36" t="s">
@@ -16006,7 +16005,7 @@
       <c r="C56" s="103" t="s">
         <v>753</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="109" t="s">
         <v>754</v>
       </c>
       <c r="E56" s="36" t="s">
@@ -16036,7 +16035,7 @@
       <c r="C57" s="37" t="s">
         <v>758</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="109" t="s">
         <v>757</v>
       </c>
       <c r="E57" s="36" t="s">
@@ -16096,7 +16095,7 @@
       <c r="C59" s="105" t="s">
         <v>763</v>
       </c>
-      <c r="D59" s="121">
+      <c r="D59" s="114">
         <v>3323458004</v>
       </c>
       <c r="E59" s="36" t="s">
@@ -16126,7 +16125,7 @@
       <c r="C60" s="105" t="s">
         <v>766</v>
       </c>
-      <c r="D60" s="121">
+      <c r="D60" s="114">
         <v>3224252900</v>
       </c>
       <c r="E60" s="36" t="s">
@@ -16156,7 +16155,7 @@
       <c r="C61" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="D61" s="121">
+      <c r="D61" s="114">
         <v>3324980553</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -16183,7 +16182,7 @@
       <c r="C62" s="37" t="s">
         <v>772</v>
       </c>
-      <c r="D62" s="122" t="s">
+      <c r="D62" s="115" t="s">
         <v>773</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -16210,7 +16209,7 @@
       <c r="C63" s="105" t="s">
         <v>775</v>
       </c>
-      <c r="D63" s="121">
+      <c r="D63" s="114">
         <v>3324611236</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -16237,7 +16236,7 @@
       <c r="C64" s="55" t="s">
         <v>777</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="118" t="s">
         <v>778</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -16264,7 +16263,7 @@
       <c r="C65" s="106" t="s">
         <v>785</v>
       </c>
-      <c r="D65" s="116" t="s">
+      <c r="D65" s="109" t="s">
         <v>786</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -16291,7 +16290,7 @@
       <c r="C66" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="D66" s="116" t="s">
+      <c r="D66" s="109" t="s">
         <v>789</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -16318,7 +16317,7 @@
       <c r="C67" s="107" t="s">
         <v>791</v>
       </c>
-      <c r="D67" s="116" t="s">
+      <c r="D67" s="109" t="s">
         <v>792</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -16345,7 +16344,7 @@
       <c r="C68" s="37" t="s">
         <v>794</v>
       </c>
-      <c r="D68" s="125" t="s">
+      <c r="D68" s="118" t="s">
         <v>786</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -16372,7 +16371,7 @@
       <c r="C69" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="D69" s="123" t="s">
+      <c r="D69" s="116" t="s">
         <v>797</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -16399,7 +16398,7 @@
       <c r="C70" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="D70" s="124">
+      <c r="D70" s="117">
         <v>9831802169</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -16426,7 +16425,7 @@
       <c r="C71" s="108" t="s">
         <v>801</v>
       </c>
-      <c r="D71" s="116" t="s">
+      <c r="D71" s="109" t="s">
         <v>802</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -17417,35 +17416,35 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{0BC62651-A893-4F17-A3CD-B17481E4F156}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"Todo,Initial,Mailed,Workshop-Fixed,Customer,Reject,Ex-Customer"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{48FA51D8-D7A5-49B6-A686-AE7999226550}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{D7722CFF-53BF-4FB7-B056-C2844BB4A22C}"/>
-    <hyperlink ref="C55" r:id="rId9" xr:uid="{BE0530F6-6F7D-4034-A254-388A9108253A}"/>
-    <hyperlink ref="C57" r:id="rId10" xr:uid="{BA69FE6F-3BEF-4B50-BA49-2E89C4755EC6}"/>
-    <hyperlink ref="C61" r:id="rId11" xr:uid="{544F73B4-3A78-450F-9D95-8A84425D98EE}"/>
-    <hyperlink ref="C62" r:id="rId12" xr:uid="{50003CFA-78FF-4098-80AC-9DF9F321E576}"/>
-    <hyperlink ref="C38" r:id="rId13" xr:uid="{4B33A0D9-AE24-49FD-85B5-D57F7A77A4AD}"/>
-    <hyperlink ref="C65" r:id="rId14" xr:uid="{76098514-0021-49E9-B97D-8FAA0D62BC17}"/>
-    <hyperlink ref="C66" r:id="rId15" xr:uid="{4327C233-89D0-439E-BBC4-98DAF37F5CA6}"/>
-    <hyperlink ref="C68" r:id="rId16" xr:uid="{CE628114-6861-4DDB-A13F-58A61D4B47B2}"/>
-    <hyperlink ref="D69" r:id="rId17" xr:uid="{EDF6C3C2-CB04-43AE-8CE0-0261F4D7B44E}"/>
-    <hyperlink ref="C70" r:id="rId18" xr:uid="{3BC1BA98-1B3D-408F-9667-DBAB40E00C40}"/>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
+    <hyperlink ref="C49" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C55" r:id="rId9"/>
+    <hyperlink ref="C57" r:id="rId10"/>
+    <hyperlink ref="C61" r:id="rId11"/>
+    <hyperlink ref="C62" r:id="rId12"/>
+    <hyperlink ref="C38" r:id="rId13"/>
+    <hyperlink ref="C65" r:id="rId14"/>
+    <hyperlink ref="C66" r:id="rId15"/>
+    <hyperlink ref="C68" r:id="rId16"/>
+    <hyperlink ref="D69" r:id="rId17"/>
+    <hyperlink ref="C70" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
@@ -17454,7 +17453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17654,7 +17653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17737,7 +17736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
@@ -19431,7 +19430,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C115" r:id="rId1" display="tel:9038724147" xr:uid="{17E722D1-065A-413E-87E3-26561954F555}"/>
+    <hyperlink ref="C115" r:id="rId1" display="tel:9038724147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
